--- a/Excels/data/2011.xlsx
+++ b/Excels/data/2011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B44AEB-C864-4EF9-A9D1-033A0BC7E328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3C83C6-F35E-4446-B557-E44948AC208A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{276B6CBA-55D0-4E50-88ED-FA1A6AEF0DFC}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{276B6CBA-55D0-4E50-88ED-FA1A6AEF0DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="165">
   <si>
     <t>Round</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -651,18 +657,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -820,8 +827,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{623643D4-D788-489F-AAF9-A0398ABA77EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -829,6 +836,7 @@
       <queryTableField id="4" name="No." tableColumnId="4"/>
       <queryTableField id="5" name="Rider" tableColumnId="5"/>
       <queryTableField id="6" name="Rounds" tableColumnId="6"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -844,9 +852,9 @@
   <autoFilter ref="A1:D19" xr:uid="{409E0AC7-6A02-4C72-BCA8-4503E691F518}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{57F5CC35-C69B-49A3-AA76-B02D1F0BEC84}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{DCDE6333-400E-45DA-9633-F88F8852DF75}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{26F4BACC-0BFC-43F8-92FA-CFD81858694E}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{FB45BFD6-2E50-4F24-942A-3B66E03664C1}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{DCDE6333-400E-45DA-9633-F88F8852DF75}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{26F4BACC-0BFC-43F8-92FA-CFD81858694E}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{FB45BFD6-2E50-4F24-942A-3B66E03664C1}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,27 +865,27 @@
   <autoFilter ref="A1:W29" xr:uid="{F589522D-6C34-45C4-80E6-A16ABCBBD1D3}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{55952E80-A9D1-43BD-B89C-A96CFE6A5063}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{15276467-DD20-4DC9-8D5B-F88EC3D2ABE0}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{18111769-15CA-455A-A024-6D957F7B1782}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{D2F158E6-ADB8-4114-B7CB-62D78223280F}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{593AA4FB-31A8-42D3-9A76-6C9A3D02C184}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{E6E940A2-AEF5-41A2-920F-4E54692995CE}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{F1AD1079-5967-4D23-A3D4-8B45EB40F054}" uniqueName="7" name="POR" queryTableFieldId="7" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{541D8DBB-C67F-4EBE-992E-F1D4DD64968E}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{CEEF1413-310E-4EA0-81B0-36E59A9DACE4}" uniqueName="9" name="CAT" queryTableFieldId="9" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{0043C889-EE8E-4BAA-9944-5CC8E933DB0F}" uniqueName="10" name="GBR" queryTableFieldId="10" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{9FA5B761-864A-44F1-B605-E33FEC7A29B5}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{2D3D8E06-2E19-4351-AE5A-2B0B42B37C99}" uniqueName="12" name="ITA" queryTableFieldId="12" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{15276467-DD20-4DC9-8D5B-F88EC3D2ABE0}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{18111769-15CA-455A-A024-6D957F7B1782}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D2F158E6-ADB8-4114-B7CB-62D78223280F}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{593AA4FB-31A8-42D3-9A76-6C9A3D02C184}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{E6E940A2-AEF5-41A2-920F-4E54692995CE}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{F1AD1079-5967-4D23-A3D4-8B45EB40F054}" uniqueName="7" name="POR" queryTableFieldId="7" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{541D8DBB-C67F-4EBE-992E-F1D4DD64968E}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{CEEF1413-310E-4EA0-81B0-36E59A9DACE4}" uniqueName="9" name="CAT" queryTableFieldId="9" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{0043C889-EE8E-4BAA-9944-5CC8E933DB0F}" uniqueName="10" name="GBR" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{9FA5B761-864A-44F1-B605-E33FEC7A29B5}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{2D3D8E06-2E19-4351-AE5A-2B0B42B37C99}" uniqueName="12" name="ITA" queryTableFieldId="12" dataDxfId="16"/>
     <tableColumn id="13" xr3:uid="{CDC7411C-E23E-4523-8BA2-6230A83171DE}" uniqueName="13" name="GER" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{6D0BB6F1-9E9A-4384-8C7A-62CB27006F92}" uniqueName="14" name="USA" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{9CAA10FC-6611-4502-B4CA-62083A0AB37B}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{1376A6E6-2303-4C55-A47D-9BD32F37AC87}" uniqueName="16" name="INP" queryTableFieldId="16" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{E41A235D-9255-42E9-A2BE-6B4DB005020B}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{FAA3D54B-8EF0-474F-903F-73E415FA7DE4}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{FCF06C27-6EA8-4FDD-A67E-FB01997F1788}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{F2571D69-B971-4B85-B1B2-19AD51CED95D}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{A2CC59A8-BE7A-4E9F-808D-BCC140E0C303}" uniqueName="21" name="MAL" queryTableFieldId="21" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{834792D3-B1FF-4959-B5EE-4A2BC8F67C65}" uniqueName="22" name="VAL" queryTableFieldId="22" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{6D0BB6F1-9E9A-4384-8C7A-62CB27006F92}" uniqueName="14" name="USA" queryTableFieldId="14" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{9CAA10FC-6611-4502-B4CA-62083A0AB37B}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{1376A6E6-2303-4C55-A47D-9BD32F37AC87}" uniqueName="16" name="INP" queryTableFieldId="16" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{E41A235D-9255-42E9-A2BE-6B4DB005020B}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{FAA3D54B-8EF0-474F-903F-73E415FA7DE4}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{FCF06C27-6EA8-4FDD-A67E-FB01997F1788}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{F2571D69-B971-4B85-B1B2-19AD51CED95D}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{A2CC59A8-BE7A-4E9F-808D-BCC140E0C303}" uniqueName="21" name="MAL" queryTableFieldId="21" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{834792D3-B1FF-4959-B5EE-4A2BC8F67C65}" uniqueName="22" name="VAL" queryTableFieldId="22" dataDxfId="7"/>
     <tableColumn id="23" xr3:uid="{5CBE8060-52E6-4ED6-AD18-74A256101BF2}" uniqueName="23" name="Pts" queryTableFieldId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -885,16 +893,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8519D2D6-4050-4C58-A2B0-06143C20828A}" name="Table_2" displayName="Table_2" ref="A1:G30" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G30" xr:uid="{8519D2D6-4050-4C58-A2B0-06143C20828A}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8816034B-94A2-46E0-996E-5671C43ED8D8}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{E46A7C48-751B-4DF6-AC01-0E65896ACED9}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{5B77CE9A-6356-40EE-91BE-E2693BBD85BF}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{53F20FDD-BBA9-4A41-85EE-4162D1921CB3}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8519D2D6-4050-4C58-A2B0-06143C20828A}" name="Table_2" displayName="Table_2" ref="A1:H30" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H30" xr:uid="{8519D2D6-4050-4C58-A2B0-06143C20828A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8816034B-94A2-46E0-996E-5671C43ED8D8}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E46A7C48-751B-4DF6-AC01-0E65896ACED9}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5B77CE9A-6356-40EE-91BE-E2693BBD85BF}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{53F20FDD-BBA9-4A41-85EE-4162D1921CB3}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{84DA6CDA-CFD8-46FC-84D6-E65763265468}" uniqueName="4" name="No." queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{4FBDE7C7-9862-42A7-BA72-754959C02267}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{D346562A-3ADD-40B0-800E-3D111F974B0C}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{4FBDE7C7-9862-42A7-BA72-754959C02267}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D346562A-3ADD-40B0-800E-3D111F974B0C}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9A819230-CE84-4CEA-B031-B2C04B78FE5B}" uniqueName="8" name="Class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1229,13 +1238,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1243,13 +1252,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1257,13 +1266,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1271,13 +1280,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1285,13 +1294,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1299,13 +1308,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1313,13 +1322,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1327,13 +1336,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1341,13 +1350,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1355,13 +1364,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1369,13 +1378,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1383,13 +1392,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1397,13 +1406,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1411,13 +1420,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1425,13 +1434,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1439,13 +1448,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1453,13 +1462,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1467,13 +1476,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1592,67 +1601,67 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>147</v>
       </c>
       <c r="M2">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>147</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>145</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>147</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>145</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>148</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>145</v>
       </c>
       <c r="W2">
@@ -1663,65 +1672,63 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>145</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>149</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>151</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
       <c r="W3">
         <v>260</v>
       </c>
@@ -1730,67 +1737,67 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>110</v>
       </c>
       <c r="M4">
         <v>4</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="R4" t="s">
+        <v>146</v>
+      </c>
+      <c r="S4" t="s">
         <v>153</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>147</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>148</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>147</v>
       </c>
       <c r="W4">
@@ -1801,61 +1808,58 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" t="s">
         <v>154</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="O5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>110</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>145</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>149</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>148</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>153</v>
       </c>
       <c r="W5">
@@ -1866,67 +1870,67 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>149</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>149</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>150</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>153</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>150</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>151</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" t="s">
         <v>110</v>
       </c>
       <c r="W6">
@@ -1937,67 +1941,66 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>150</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>153</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>152</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>149</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>149</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>149</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>110</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>155</v>
       </c>
-      <c r="V7" s="1"/>
       <c r="W7">
         <v>139</v>
       </c>
@@ -2006,67 +2009,67 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>153</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>150</v>
       </c>
       <c r="M8">
         <v>9</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="S8" t="s">
+        <v>146</v>
+      </c>
+      <c r="T8" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" t="s">
         <v>148</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" t="s">
         <v>146</v>
       </c>
       <c r="W8">
@@ -2077,67 +2080,67 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>149</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>103</v>
       </c>
       <c r="M9">
         <v>8</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" t="s">
+        <v>146</v>
+      </c>
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>148</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" t="s">
         <v>146</v>
       </c>
       <c r="W9">
@@ -2148,67 +2151,66 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>157</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>147</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>75</v>
       </c>
       <c r="M10">
         <v>10</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>154</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>157</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>157</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>154</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>153</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>148</v>
       </c>
-      <c r="V10" s="1"/>
       <c r="W10">
         <v>109</v>
       </c>
@@ -2217,65 +2219,64 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>154</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>158</v>
       </c>
       <c r="M11">
         <v>15</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>158</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>158</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="T11" t="s">
+        <v>146</v>
+      </c>
+      <c r="U11" t="s">
         <v>148</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" t="s">
         <v>152</v>
       </c>
       <c r="W11">
@@ -2286,34 +2287,18 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>154</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
       <c r="W12">
         <v>98</v>
       </c>
@@ -2322,65 +2307,64 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>91</v>
       </c>
       <c r="M13">
         <v>11</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="P13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>154</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
+      <c r="S13" t="s">
+        <v>146</v>
+      </c>
+      <c r="U13" t="s">
         <v>148</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" t="s">
         <v>158</v>
       </c>
       <c r="W13">
@@ -2391,67 +2375,67 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>146</v>
       </c>
       <c r="M14">
         <v>14</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" t="s">
         <v>158</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>103</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>158</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="1" t="s">
+      <c r="T14" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" t="s">
         <v>148</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" t="s">
         <v>149</v>
       </c>
       <c r="W14">
@@ -2462,65 +2446,64 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>152</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>152</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>153</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>157</v>
       </c>
       <c r="M15">
         <v>7</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>150</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="1" t="s">
+      <c r="S15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
+        <v>146</v>
+      </c>
+      <c r="U15" t="s">
         <v>148</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" t="s">
         <v>146</v>
       </c>
       <c r="W15">
@@ -2531,67 +2514,67 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
         <v>152</v>
       </c>
       <c r="M16">
         <v>12</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="O16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" t="s">
         <v>152</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="R16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>103</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>148</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" t="s">
         <v>154</v>
       </c>
       <c r="W16">
@@ -2602,67 +2585,67 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>77</v>
       </c>
       <c r="M17">
         <v>16</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>157</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>158</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>157</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="R17" t="s">
+        <v>146</v>
+      </c>
+      <c r="S17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" t="s">
         <v>154</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>148</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" t="s">
         <v>103</v>
       </c>
       <c r="W17">
@@ -2673,67 +2656,67 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
         <v>152</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
         <v>156</v>
       </c>
       <c r="M18">
         <v>13</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>151</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>152</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" t="s">
         <v>154</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>156</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>152</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>103</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" t="s">
         <v>148</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" t="s">
         <v>146</v>
       </c>
       <c r="W18">
@@ -2744,60 +2727,58 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>103</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
+      <c r="P19" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>146</v>
+      </c>
+      <c r="R19" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" t="s">
         <v>75</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" t="s">
         <v>148</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" t="s">
         <v>75</v>
       </c>
       <c r="W19">
@@ -2808,34 +2789,19 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>148</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" t="s">
         <v>150</v>
       </c>
       <c r="W20">
@@ -2846,32 +2812,16 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1" t="s">
+      <c r="V21" t="s">
         <v>91</v>
       </c>
       <c r="W21">
@@ -2882,34 +2832,18 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
       <c r="W22">
         <v>7</v>
       </c>
@@ -2918,34 +2852,18 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>152</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
       <c r="W23">
         <v>7</v>
       </c>
@@ -2954,38 +2872,24 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
+      <c r="U24" t="s">
         <v>148</v>
       </c>
-      <c r="V24" s="1"/>
       <c r="W24">
         <v>6</v>
       </c>
@@ -2994,167 +2898,86 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
+      <c r="S25" t="s">
         <v>157</v>
       </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
       <c r="W25">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
       <c r="M26">
         <v>17</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
       <c r="W26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="S27" t="s">
+        <v>146</v>
+      </c>
       <c r="W27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
+      <c r="T28" t="s">
         <v>151</v>
       </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
       <c r="W28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
+      <c r="N29" t="s">
+        <v>146</v>
+      </c>
       <c r="W29">
         <v>0</v>
       </c>
@@ -3169,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3924DA-866F-4A2C-8025-5C3B9006210B}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3009,7 @@
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -3208,672 +3031,762 @@
       <c r="G1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>162</v>
       </c>
       <c r="E2">
         <v>46</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>162</v>
       </c>
       <c r="E3">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>162</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>162</v>
       </c>
       <c r="E5">
         <v>65</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>162</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>162</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>162</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>162</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>162</v>
       </c>
       <c r="E10">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>162</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>162</v>
       </c>
       <c r="E12">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>162</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>162</v>
       </c>
       <c r="E14">
         <v>27</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>162</v>
       </c>
       <c r="E15">
         <v>72</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>162</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>162</v>
       </c>
       <c r="E17">
         <v>64</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>162</v>
       </c>
       <c r="E18">
         <v>58</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>162</v>
       </c>
       <c r="E19">
         <v>24</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>162</v>
       </c>
       <c r="E20">
         <v>23</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>162</v>
       </c>
       <c r="E21">
         <v>64</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>162</v>
       </c>
       <c r="E22">
         <v>19</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>162</v>
       </c>
       <c r="E23">
         <v>21</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>162</v>
       </c>
       <c r="E24">
         <v>21</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>162</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>162</v>
       </c>
       <c r="E26">
         <v>89</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H26" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>162</v>
       </c>
       <c r="E27">
         <v>11</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="H27" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>162</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="H28" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>162</v>
       </c>
       <c r="E29">
         <v>41</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="H29" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>162</v>
       </c>
       <c r="E30">
         <v>35</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>68</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +3801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA684EB2-6C14-41C9-94E2-66082676C3E3}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3978,1262 +3891,1262 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>6</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>9</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="P8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>8</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="N9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>10</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>15</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="R11" s="5" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>11</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="M13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5" t="s">
+      <c r="P13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="1">
         <v>14</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="K14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R14" s="4" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>7</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="K15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="R15" s="5" t="s">
+      <c r="P15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>12</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="L16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="O16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>16</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+      <c r="O17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>13</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5" t="s">
+      <c r="M19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S24" s="4"/>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
         <v>17</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
